--- a/swings/2021-11-22/KUCOIN_SPOT_CRO_USDT.xlsx
+++ b/swings/2021-11-22/KUCOIN_SPOT_CRO_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0.7186</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>0.7343000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +723,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +778,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>0.7076</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -819,6 +835,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>0.7174</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +890,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -923,6 +943,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +998,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>0.6811</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1031,6 +1055,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>0.7171000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1085,6 +1112,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>0.7027</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1137,6 +1167,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1189,6 +1220,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1241,6 +1273,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1293,6 +1326,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1345,6 +1379,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1399,6 +1434,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>0.767</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1451,6 +1489,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1505,6 +1544,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>0.7170000000000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1601,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>0.7300000000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1611,6 +1656,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1665,6 +1711,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>0.6973</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1719,6 +1768,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>0.7106</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1771,6 +1823,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1825,6 +1878,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>0.6914</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1879,6 +1935,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>0.7008000000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1931,6 +1990,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1983,6 +2043,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2035,6 +2096,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2087,6 +2149,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2139,6 +2202,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2193,6 +2257,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>0.6548</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2245,6 +2312,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2297,6 +2365,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2351,6 +2420,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>0.6925</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2403,6 +2475,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2457,6 +2530,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>0.6746000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2509,6 +2585,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2561,6 +2638,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2615,6 +2693,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>0.6900000000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2669,6 +2750,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>0.6781</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2721,6 +2805,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2775,6 +2860,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>0.7000000000000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2827,6 +2915,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2881,6 +2970,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>0.6896</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2933,6 +3025,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2985,6 +3078,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3037,6 +3131,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3091,6 +3186,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>0.7049000000000001</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3143,6 +3241,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3197,6 +3296,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>0.6892</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3251,6 +3353,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>0.6947000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3303,6 +3408,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3357,6 +3463,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>0.6817000000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3409,6 +3518,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3463,6 +3573,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>0.6952</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3515,6 +3628,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3567,6 +3681,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3619,6 +3734,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3671,6 +3787,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3725,6 +3842,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>0.666</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3779,6 +3899,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>0.6766000000000001</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3831,6 +3954,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3883,6 +4007,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3935,6 +4060,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3989,6 +4115,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>0.6625000000000001</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4041,6 +4170,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4095,6 +4225,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>0.675</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4149,6 +4282,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4201,6 +4337,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4253,6 +4390,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4307,6 +4445,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>0.6821</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4359,6 +4500,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4413,6 +4555,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O75" t="n">
+        <v>0.6692</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4465,6 +4610,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4519,6 +4665,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>0.6920000000000001</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4573,6 +4722,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O78" t="n">
+        <v>0.6825</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4625,6 +4777,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4679,6 +4832,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O80" t="n">
+        <v>0.6969000000000001</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4733,6 +4889,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>0.6784</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4785,6 +4944,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4837,6 +4997,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4889,6 +5050,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4943,6 +5105,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>0.7563000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4997,6 +5162,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>0.7240000000000001</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5051,6 +5219,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>0.749</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5105,6 +5276,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.7280000000000001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5159,6 +5333,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>0.7433000000000001</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5211,6 +5388,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5265,6 +5443,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>0.7284</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5319,6 +5500,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>0.746</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5373,6 +5557,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>0.7300000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5425,6 +5612,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5477,6 +5665,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5529,6 +5718,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5583,6 +5773,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>0.7679</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5635,6 +5828,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5689,6 +5883,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>0.7380000000000001</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5743,6 +5940,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>0.7488</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5795,6 +5995,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5849,6 +6050,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O102" t="n">
+        <v>0.7283000000000001</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5903,6 +6107,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O103" t="n">
+        <v>0.7401000000000001</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5955,6 +6162,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6007,6 +6215,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6059,6 +6268,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6113,6 +6323,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>0.7105</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6167,6 +6380,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.7266</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6219,6 +6435,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6273,6 +6490,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>0.7183</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6327,6 +6547,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>0.7260000000000001</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6379,6 +6602,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6431,6 +6655,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6483,6 +6708,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6535,6 +6761,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6589,6 +6816,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>0.6963</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6643,6 +6873,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>0.7140000000000001</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6695,6 +6928,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6747,6 +6981,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6801,6 +7036,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>0.6932</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6853,6 +7091,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6905,6 +7144,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6959,6 +7199,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>0.7100000000000001</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7013,6 +7256,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>0.7027</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7065,6 +7311,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7119,6 +7366,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>0.7149000000000001</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7173,6 +7423,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>0.7017</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7227,6 +7480,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>0.7100000000000001</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7281,6 +7537,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>0.7049000000000001</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7333,6 +7592,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7387,6 +7647,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>0.7234</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7441,6 +7704,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>0.7155</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7493,6 +7759,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7547,6 +7814,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>0.7286</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7601,6 +7871,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>0.7202000000000001</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7653,6 +7926,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7705,6 +7979,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7757,6 +8032,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7809,6 +8085,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7863,6 +8140,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7915,6 +8195,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7967,6 +8248,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8019,6 +8301,7 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8073,6 +8356,9 @@
           <t>CROUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>0.7192000000000001</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8126,6 +8412,9 @@
         <is>
           <t>CROUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.7336</v>
       </c>
     </row>
   </sheetData>
